--- a/学习报告/信息化培训报告/新员工半周报-20180228-蒙冠州.xlsx
+++ b/学习报告/信息化培训报告/新员工半周报-20180228-蒙冠州.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>序号</t>
   </si>
@@ -58,38 +58,6 @@
   </si>
   <si>
     <t>朱强</t>
-  </si>
-  <si>
-    <t>统一数据视图</t>
-  </si>
-  <si>
-    <t>编排成EXCEL，目标是对外公布，实现指标一览和易查找</t>
-  </si>
-  <si>
-    <t>江雨峰、全体青橙</t>
-  </si>
-  <si>
-    <t>更新机制完成</t>
-  </si>
-  <si>
-    <t>工作量较大，加工过程难找</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、表格模板确认
-2、表格信息填写
-3、更新机制
-4、积极联系国信员工查找加工过程
-5、提高效率或加班完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据能力提升</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人部分已完成，待检验问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2、可视化</t>
@@ -302,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,9 +289,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -342,13 +307,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -660,7 +625,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,88 +636,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43108</v>
-      </c>
-      <c r="E2" s="3">
-        <v>43164</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
+      <c r="A3" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>43157</v>
@@ -761,90 +690,90 @@
         <v>43165</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>38</v>
+      <c r="K3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43153</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43175</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="J4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11">
-        <v>43153</v>
-      </c>
-      <c r="E4" s="11">
-        <v>43175</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10">
         <v>43157</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/学习报告/信息化培训报告/新员工半周报-20180228-蒙冠州.xlsx
+++ b/学习报告/信息化培训报告/新员工半周报-20180228-蒙冠州.xlsx
@@ -625,7 +625,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
